--- a/init-data/hzero-platform/hzero_platform/hzero-platform-config.xlsx
+++ b/init-data/hzero-platform/hzero_platform/hzero-platform-config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HZERO-OPEN-PROJECTS\hzero-resource\init-data\hzero-platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HZERO-OPEN-PROJECTS\HZERO-OPEN-HOSP\hzero-resource\init-data\hzero-platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E253C9B7-1D6E-4D90-B57A-65ADBD558E14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2619B1C7-B545-4C12-87E1-4577539C36D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="94">
   <si>
     <r>
       <rPr>
@@ -1996,7 +1996,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-17</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2011,13 +2011,19 @@
     <t>*config_id</t>
   </si>
   <si>
-    <t>#tenant_id</t>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
   </si>
   <si>
     <t>#config_code</t>
   </si>
   <si>
-    <t>config_value</t>
+    <t>config_value:zh_CN</t>
+  </si>
+  <si>
+    <t>config_value:en_US</t>
   </si>
   <si>
     <t>category</t>
@@ -2032,96 +2038,102 @@
     <t>TITLE</t>
   </si>
   <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>LOGO</t>
+  </si>
+  <si>
+    <t>MENU_LAYOUT</t>
+  </si>
+  <si>
+    <t>side-all</t>
+  </si>
+  <si>
+    <t>MENU_LAYOUT_THEME</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>FAVICON</t>
+  </si>
+  <si>
+    <t>ROLE_MERGE</t>
+  </si>
+  <si>
+    <t>HIAM.INDEX_URL</t>
+  </si>
+  <si>
+    <t>iam</t>
+  </si>
+  <si>
+    <t>HIAM.IF_SEND_MODIFY_PASSWORD</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HIAM.IF_SEND_CREATE_USER</t>
+  </si>
+  <si>
+    <t>HOTH.TITLE</t>
+  </si>
+  <si>
+    <t>HZERO</t>
+  </si>
+  <si>
+    <t>oauth</t>
+  </si>
+  <si>
+    <t>HOTH.COPYRIGHT</t>
+  </si>
+  <si>
+    <t>Copyright © The HZERO Author®.All rights reserved.</t>
+  </si>
+  <si>
+    <t>HOTH.LOGIN_SUCCESS_URL</t>
+  </si>
+  <si>
+    <t>HOTH.SHOW_LANGUAGE</t>
+  </si>
+  <si>
+    <t>HOTH.LOGO_URL</t>
+  </si>
+  <si>
+    <t>HOTH.DEFAULT_LANGUAGE</t>
+  </si>
+  <si>
+    <t>zh_CN</t>
+  </si>
+  <si>
+    <t>TENANT_DEFAULT_LANGUAGE</t>
+  </si>
+  <si>
+    <t>WATERMARK</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
     <t>HZERO技术平台</t>
   </si>
   <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>LOGO</t>
-  </si>
-  <si>
-    <t>MENU_LAYOUT</t>
-  </si>
-  <si>
-    <t>side-all</t>
-  </si>
-  <si>
-    <t>MENU_LAYOUT_THEME</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>FAVICON</t>
-  </si>
-  <si>
-    <t>ROLE_MERGE</t>
-  </si>
-  <si>
-    <t>HIAM.INDEX_URL</t>
-  </si>
-  <si>
-    <t>iam</t>
-  </si>
-  <si>
-    <t>HIAM.IF_SEND_MODIFY_PASSWORD</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>HIAM.IF_SEND_CREATE_USER</t>
-  </si>
-  <si>
-    <t>HOTH.TITLE</t>
-  </si>
-  <si>
-    <t>HZERO</t>
-  </si>
-  <si>
-    <t>oauth</t>
-  </si>
-  <si>
-    <t>HOTH.COPYRIGHT</t>
-  </si>
-  <si>
-    <t>Copyright © The HZERO Author®.All rights reserved.</t>
-  </si>
-  <si>
-    <t>HOTH.LOGIN_SUCCESS_URL</t>
-  </si>
-  <si>
-    <t>http://hzeronf.saas.hand-china.com</t>
-  </si>
-  <si>
-    <t>HOTH.SHOW_LANGUAGE</t>
-  </si>
-  <si>
-    <t>HOTH.LOGO_URL</t>
-  </si>
-  <si>
-    <t>HOTH.DEFAULT_LANGUAGE</t>
-  </si>
-  <si>
-    <t>zh_CN</t>
+    <t>https://file.open.hand-china.com/hsop-image/doc_classify/0/8ff6ad27c153445d90606db2eca4c268/logo.png</t>
+  </si>
+  <si>
+    <t>https://open.hand-china.com</t>
   </si>
   <si>
     <t>https://file.open.hand-china.com/hsop-image/doc_classify/0/fed03e0fcb9d4a408d5be052fced12d1/hzero.png</t>
   </si>
   <si>
-    <t>https://file.open.hand-china.com/hsop-image/doc_classify/0/8ff6ad27c153445d90606db2eca4c268/logo.png</t>
-  </si>
-  <si>
-    <t>https://open.hand-china.com</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <t>http://dev.hzero.org/workplace</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2305,6 +2317,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2444,7 +2462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2507,6 +2525,8 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2868,7 +2888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
@@ -2890,11 +2910,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -2903,21 +2923,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="40" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3028,11 +3048,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -3070,19 +3090,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="38"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="38"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -3107,19 +3127,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
@@ -3133,7 +3155,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
@@ -3144,7 +3166,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3166,175 +3188,235 @@
       <c r="G7" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="38" t="s">
         <v>57</v>
       </c>
       <c r="I7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="E8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="E9" t="s">
         <v>61</v>
       </c>
-      <c r="H8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="E9" t="s">
-        <v>59</v>
-      </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
         <v>64</v>
       </c>
-      <c r="H9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:11">
       <c r="E10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
         <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="E11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
         <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="E12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="E13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="E14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="E15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="H15" t="s">
         <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="E16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s">
         <v>75</v>
       </c>
-      <c r="H16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9">
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11">
       <c r="E17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H17" t="s">
         <v>77</v>
@@ -3342,98 +3424,177 @@
       <c r="I17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="5:9">
+      <c r="J17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11">
       <c r="E18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="H18" t="s">
         <v>80</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9">
+        <v>81</v>
+      </c>
+      <c r="J18" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11">
       <c r="E19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="5:9">
+        <v>93</v>
+      </c>
+      <c r="J19" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11">
       <c r="E20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" t="s">
         <v>83</v>
       </c>
-      <c r="H20" t="s">
-        <v>74</v>
-      </c>
       <c r="I20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="5:9">
+        <v>75</v>
+      </c>
+      <c r="J20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11">
       <c r="E21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" t="s">
         <v>84</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11">
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11">
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" t="s">
         <v>87</v>
       </c>
-      <c r="I21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9">
-      <c r="E22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I23" t="s">
         <v>86</v>
       </c>
-      <c r="I22" t="s">
-        <v>78</v>
+      <c r="J23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11">
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H14" r:id="rId1" xr:uid="{99115440-48B3-4167-8FB9-CDF5434850BC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>